--- a/new_data/DJI/DJI_2013/DJI_2013.xlsx
+++ b/new_data/DJI/DJI_2013/DJI_2013.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Time_Series_Research\new_data\DJI\DJI_2013\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F439E6D-BB3B-4BAE-A142-AC53185C6ADC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FC7CA6-A72D-487C-BC1B-FAE52C5C70ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
   <si>
     <t>Volume</t>
   </si>
@@ -193,7 +193,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -278,33 +278,9 @@
         <color theme="4"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4"/>
-      </left>
-      <right style="medium">
-        <color theme="4"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4"/>
-      </left>
-      <right style="medium">
-        <color theme="4"/>
-      </right>
-      <top style="medium">
-        <color theme="4"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -316,7 +292,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyFont="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -334,9 +310,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -347,9 +320,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -641,7 +611,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -651,9 +621,9 @@
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="9"/>
-    <col min="8" max="8" width="13.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="9"/>
+    <col min="7" max="7" width="9.140625" style="8"/>
+    <col min="8" max="8" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -674,20 +644,19 @@
         <v>21</v>
       </c>
       <c r="G1" s="7"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="10"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="12"/>
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>2</v>
       </c>
     </row>
@@ -695,18 +664,18 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="11"/>
+      <c r="D3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="10"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="13" t="s">
-        <v>29</v>
+      <c r="G3" s="8">
+        <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>3</v>
       </c>
     </row>
@@ -714,18 +683,18 @@
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="11"/>
+      <c r="D4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="10"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="13" t="s">
-        <v>29</v>
+      <c r="G4" s="8">
+        <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>4</v>
       </c>
     </row>
@@ -733,18 +702,18 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="11"/>
+      <c r="D5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="10"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="13" t="s">
-        <v>29</v>
+      <c r="G5" s="8">
+        <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>5</v>
       </c>
       <c r="K5" t="s">
@@ -755,20 +724,20 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="13" t="s">
-        <v>29</v>
+      <c r="G6" s="8">
+        <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>6</v>
       </c>
     </row>
@@ -776,13 +745,12 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="8"/>
       <c r="H7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>7</v>
       </c>
     </row>
@@ -790,15 +758,14 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="13"/>
       <c r="H8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>8</v>
       </c>
     </row>
@@ -806,19 +773,19 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="11"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="10"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="13" t="s">
-        <v>29</v>
+      <c r="G9" s="8">
+        <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>9</v>
       </c>
     </row>
@@ -826,14 +793,13 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="13"/>
       <c r="H10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>10</v>
       </c>
     </row>
@@ -841,18 +807,18 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="11"/>
+      <c r="D11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="10"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="13" t="s">
-        <v>29</v>
+      <c r="G11" s="8">
+        <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>11</v>
       </c>
     </row>
@@ -860,13 +826,12 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="10"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="13"/>
       <c r="H12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>12</v>
       </c>
     </row>
@@ -874,13 +839,12 @@
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="10"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="13"/>
       <c r="H13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>13</v>
       </c>
     </row>
@@ -888,14 +852,13 @@
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="13"/>
       <c r="H14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>14</v>
       </c>
     </row>
@@ -903,18 +866,18 @@
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="11"/>
+      <c r="D15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="10"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="13" t="s">
-        <v>29</v>
+      <c r="G15" s="8">
+        <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>15</v>
       </c>
     </row>
@@ -922,18 +885,18 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="11"/>
+      <c r="D16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="10"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="13" t="s">
-        <v>29</v>
+      <c r="G16" s="8">
+        <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <v>16</v>
       </c>
     </row>
@@ -941,13 +904,12 @@
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="10"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="8"/>
       <c r="H17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <v>17</v>
       </c>
     </row>
@@ -955,13 +917,12 @@
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="10"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="8"/>
       <c r="H18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <v>18</v>
       </c>
     </row>
@@ -970,11 +931,10 @@
         <v>12</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="8"/>
       <c r="H19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <v>19</v>
       </c>
     </row>
@@ -983,11 +943,10 @@
         <v>13</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="8"/>
       <c r="H20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="8">
         <v>20</v>
       </c>
     </row>
@@ -996,11 +955,10 @@
         <v>14</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="8"/>
       <c r="H21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <v>21</v>
       </c>
     </row>
@@ -1009,11 +967,10 @@
         <v>15</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="8"/>
       <c r="H22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="8">
         <v>22</v>
       </c>
     </row>
@@ -1021,15 +978,14 @@
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="B23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
       <c r="H23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <v>23</v>
       </c>
     </row>
@@ -1037,26 +993,26 @@
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>29</v>
+      <c r="B24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <v>24</v>
       </c>
     </row>
